--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Limousin/Liste_des_espèces_végétales_protégées_en_Limousin.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Limousin/Liste_des_espèces_végétales_protégées_en_Limousin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Limousin</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Limousin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces protégées en Limousin est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Limousin, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 1er septembre 1989[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces protégées en Limousin est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Limousin, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 1er septembre 1989.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Limousin</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Limousin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bryophytes
+          <t>Bryophytes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Amblystegium saxatile Schimp.
 Anastrophyllum minutum (Schreb.) Schust.
 Anomobryum julaceum (Gaertn., Meyer et Schreb.) Schimp.
@@ -544,7 +562,43 @@
 Sphagnum molle Sull.
 Splachnum ampullaceum Hedw.
 Trematodon ambiguus (Hedw.) Hornsch.
-Ptéridophytes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Limousin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Limousin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces protégées en région Limousin</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Adiantum capillus-veneris L., Capillaire de Montpellier
 Anogramma leptophylla (L.) Link, Anogramma à feuilles minces
 Asplenium obovatum subsp. billotii (F.W.Schultz) O.Bolòs, Vigo, Massales &amp; Ninot anciennement Asplenium billotii F.W. Schultz, Asplenium lancéolé
@@ -566,8 +620,47 @@
 Polypodium cambricum L. anciennement Polypodium australe Fée, Polypode austral
 Polystichum lonchitis (L.) Roth
 Thelypteris palustris Schott, Théliptéris des marais
-Phanérogames angiospermes
-Monocotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Limousin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Limousin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces protégées en région Limousin</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Allium ericetorum Thore, Ail des landes
 Carex binervis Sm., Laiche à deux nervures
 Carex brizoides L., Laiche fausse-brize
@@ -605,7 +698,47 @@
 Sparganium minimum Wallr., Rubannier minuscule
 Spiranthes spiralis (L.) Chevall., Spiranthe d'automne
 Stipa pennata L., Stipe pennée
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Limousin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Limousin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces protégées en région Limousin</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aconitum lycoctonum subsp. vulparia (Rchb.) Nyman anciennement Aconitum vulparia Rchb., Aconit tue-loup
 Actaea spicata L., Actée en épi
 Adenostyles alliariae (Gouan) A.Kern., Adenostyle à feuilles d'alliaire
@@ -659,7 +792,7 @@
 Sedum villosum L., Sédum villeux
 Sempervivum arachnoideum L., Joubarbe araignée
 Senecio cacaliaster Lam., Séneçon fausse-cacalie
-Sesamoides canescens (L.) O. Kuntz[2], Asterocarpus blanchâtre
+Sesamoides canescens (L.) O. Kuntz, Asterocarpus blanchâtre
 Sibthorpia europaea L., Sibthorpia d'Europe
 Staehelina dubia L., Stéhéline douteuse
 Thalictrum minus L., Pigamon mineur
@@ -678,73 +811,160 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Limousin</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Limousin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Limousin</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Espèce supplémentaire protégée en Corrèze</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyacinthoides non-scripta (L.) Chouard ex Rothm., Jacinthe des bois
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Limousin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Limousin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Limousin</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Espèces supplémentaires protégées dans la Creuse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ptéridophytes
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Asplenium scolopendrium L., Scolopendre officinale
 Gymnocarpium dryopteris (L.) Newman, Dryopteris de Linnée
 Oreopteris limbosperma (Bellardi ex All.) Holub., Dryopteris des montagnes
 Phegopteris connectilis (Michx.) Watt., Dryopteris phegopteris
-Phanérogames angiospermes
-Monocotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Limousin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Limousin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Espèces supplémentaires protégées dans la Creuse</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anthericum liliago L., Phalangère à fleurs de lis
 Carex pendula Huds., Carex pendant
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Limousin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Limousin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Espèces supplémentaires protégées dans la Creuse</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Digitalis lutea L., Digitale jaune
 Erica scoparia L., Bruyère à balais
 Helleborus foetidus L., Hellébore fétide
@@ -755,43 +975,128 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Limousin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Limousin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Limousin</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Espèces supplémentaires protégées dans la Haute-Vienne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ptéridophytes
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Asplenium scolopendrium L., Scolopendre officinale
 Equisetum ramosissimum Desf., Prêle rameuse
 Gymnocarpium dryopteris (L.) Newman, Dryopteris de Linnée
 Oreopteris limbosperma (Bellardi ex All.) Holub., Dryopteris des montagnes
 Phegopteris connectilis (Michx.) Watt., Dryopteris phegopteris
-Phanérogames angiospermes
-Monocotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Limousin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Limousin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Espèces supplémentaires protégées dans la Haute-Vienne</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anthericum liliago L., Phalangère à fleurs de lis
 Colchicum autumnale  L., Colchique d'automne
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Limousin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Limousin</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Espèces supplémentaires protégées dans la Haute-Vienne</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hippocrepis comosa L., Hippocrepis à toupet
 Hypericum androsaemum L., Millepertuis
 Lysimachia nummularia L., Lysimaque nummulaire
